--- a/ExelProjects/Lab_1 (Red Bull versus Volkswagen).xlsx
+++ b/ExelProjects/Lab_1 (Red Bull versus Volkswagen).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dmitry\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dmitry\Documents\_Desktop\ExelProjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -320,20 +320,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -344,6 +332,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -628,7 +628,7 @@
   <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -638,7 +638,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="16"/>
+      <c r="A1" s="21"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -659,14 +659,14 @@
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
       <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
@@ -849,23 +849,23 @@
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H8" s="20">
         <f>SUM(H3:H7)</f>
         <v>2.0240125088418148</v>
       </c>
       <c r="I8" s="10"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="R10" s="20" t="s">
+      <c r="R10" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="S10" s="18" t="s">
+      <c r="S10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="T10" s="20" t="s">
+      <c r="T10" s="24" t="s">
         <v>15</v>
       </c>
     </row>
@@ -918,9 +918,9 @@
       <c r="Q11" s="12">
         <v>16</v>
       </c>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
@@ -1248,35 +1248,35 @@
       </c>
     </row>
     <row r="17" spans="17:20" x14ac:dyDescent="0.3">
-      <c r="Q17" s="21" t="s">
+      <c r="Q17" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="R17" s="22">
+      <c r="R17" s="18">
         <f>((5+1)*16)/2</f>
         <v>48</v>
       </c>
-      <c r="S17" s="21" t="s">
+      <c r="S17" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="T17" s="22">
+      <c r="T17" s="18">
         <f>SUM(T12:T16)</f>
         <v>294</v>
       </c>
     </row>
     <row r="18" spans="17:20" x14ac:dyDescent="0.3">
-      <c r="Q18" s="21" t="s">
+      <c r="Q18" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="R18" s="22">
+      <c r="R18" s="18">
         <f>(12*T17)/(16^2*(5^3-5))</f>
         <v>0.11484374999999999</v>
       </c>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="16"/>
     </row>
     <row r="19" spans="17:20" x14ac:dyDescent="0.3">
-      <c r="S19" s="19"/>
-      <c r="T19" s="19"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="5">
